--- a/BASES DE DATOS/ventash.xlsx
+++ b/BASES DE DATOS/ventash.xlsx
@@ -1,867 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Manuel\Documents\Universidades\U-Central\Econometria II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhona\Desktop\Brayan\Github\Econometria--2\BASES DE DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4ED194-50F2-4010-ADFE-026B61AB95F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Mes</t>
   </si>
   <si>
     <t>Ventas</t>
   </si>
-  <si>
-    <t>1973m1</t>
-  </si>
-  <si>
-    <t>1973m2</t>
-  </si>
-  <si>
-    <t>1973m3</t>
-  </si>
-  <si>
-    <t>1973m4</t>
-  </si>
-  <si>
-    <t>1973m5</t>
-  </si>
-  <si>
-    <t>1973m6</t>
-  </si>
-  <si>
-    <t>1973m7</t>
-  </si>
-  <si>
-    <t>1973m8</t>
-  </si>
-  <si>
-    <t>1973m9</t>
-  </si>
-  <si>
-    <t>1973m10</t>
-  </si>
-  <si>
-    <t>1973m11</t>
-  </si>
-  <si>
-    <t>1973m12</t>
-  </si>
-  <si>
-    <t>1974m1</t>
-  </si>
-  <si>
-    <t>1974m2</t>
-  </si>
-  <si>
-    <t>1974m3</t>
-  </si>
-  <si>
-    <t>1974m4</t>
-  </si>
-  <si>
-    <t>1974m5</t>
-  </si>
-  <si>
-    <t>1974m6</t>
-  </si>
-  <si>
-    <t>1974m7</t>
-  </si>
-  <si>
-    <t>1974m8</t>
-  </si>
-  <si>
-    <t>1974m9</t>
-  </si>
-  <si>
-    <t>1974m10</t>
-  </si>
-  <si>
-    <t>1974m11</t>
-  </si>
-  <si>
-    <t>1974m12</t>
-  </si>
-  <si>
-    <t>1975m1</t>
-  </si>
-  <si>
-    <t>1975m2</t>
-  </si>
-  <si>
-    <t>1975m3</t>
-  </si>
-  <si>
-    <t>1975m4</t>
-  </si>
-  <si>
-    <t>1975m5</t>
-  </si>
-  <si>
-    <t>1975m6</t>
-  </si>
-  <si>
-    <t>1975m7</t>
-  </si>
-  <si>
-    <t>1975m8</t>
-  </si>
-  <si>
-    <t>1975m9</t>
-  </si>
-  <si>
-    <t>1975m10</t>
-  </si>
-  <si>
-    <t>1975m11</t>
-  </si>
-  <si>
-    <t>1975m12</t>
-  </si>
-  <si>
-    <t>1976m1</t>
-  </si>
-  <si>
-    <t>1976m2</t>
-  </si>
-  <si>
-    <t>1976m3</t>
-  </si>
-  <si>
-    <t>1976m4</t>
-  </si>
-  <si>
-    <t>1976m5</t>
-  </si>
-  <si>
-    <t>1976m6</t>
-  </si>
-  <si>
-    <t>1976m7</t>
-  </si>
-  <si>
-    <t>1976m8</t>
-  </si>
-  <si>
-    <t>1976m9</t>
-  </si>
-  <si>
-    <t>1976m10</t>
-  </si>
-  <si>
-    <t>1976m11</t>
-  </si>
-  <si>
-    <t>1976m12</t>
-  </si>
-  <si>
-    <t>1977m1</t>
-  </si>
-  <si>
-    <t>1977m2</t>
-  </si>
-  <si>
-    <t>1977m3</t>
-  </si>
-  <si>
-    <t>1977m4</t>
-  </si>
-  <si>
-    <t>1977m5</t>
-  </si>
-  <si>
-    <t>1977m6</t>
-  </si>
-  <si>
-    <t>1977m7</t>
-  </si>
-  <si>
-    <t>1977m8</t>
-  </si>
-  <si>
-    <t>1977m9</t>
-  </si>
-  <si>
-    <t>1977m10</t>
-  </si>
-  <si>
-    <t>1977m11</t>
-  </si>
-  <si>
-    <t>1977m12</t>
-  </si>
-  <si>
-    <t>1978m1</t>
-  </si>
-  <si>
-    <t>1978m2</t>
-  </si>
-  <si>
-    <t>1978m3</t>
-  </si>
-  <si>
-    <t>1978m4</t>
-  </si>
-  <si>
-    <t>1978m5</t>
-  </si>
-  <si>
-    <t>1978m6</t>
-  </si>
-  <si>
-    <t>1978m7</t>
-  </si>
-  <si>
-    <t>1978m8</t>
-  </si>
-  <si>
-    <t>1978m9</t>
-  </si>
-  <si>
-    <t>1978m10</t>
-  </si>
-  <si>
-    <t>1978m11</t>
-  </si>
-  <si>
-    <t>1978m12</t>
-  </si>
-  <si>
-    <t>1979m1</t>
-  </si>
-  <si>
-    <t>1979m2</t>
-  </si>
-  <si>
-    <t>1979m3</t>
-  </si>
-  <si>
-    <t>1979m4</t>
-  </si>
-  <si>
-    <t>1979m5</t>
-  </si>
-  <si>
-    <t>1979m6</t>
-  </si>
-  <si>
-    <t>1979m7</t>
-  </si>
-  <si>
-    <t>1979m8</t>
-  </si>
-  <si>
-    <t>1979m9</t>
-  </si>
-  <si>
-    <t>1979m10</t>
-  </si>
-  <si>
-    <t>1979m11</t>
-  </si>
-  <si>
-    <t>1979m12</t>
-  </si>
-  <si>
-    <t>1980m1</t>
-  </si>
-  <si>
-    <t>1980m2</t>
-  </si>
-  <si>
-    <t>1980m3</t>
-  </si>
-  <si>
-    <t>1980m4</t>
-  </si>
-  <si>
-    <t>1980m5</t>
-  </si>
-  <si>
-    <t>1980m6</t>
-  </si>
-  <si>
-    <t>1980m7</t>
-  </si>
-  <si>
-    <t>1980m8</t>
-  </si>
-  <si>
-    <t>1980m9</t>
-  </si>
-  <si>
-    <t>1980m10</t>
-  </si>
-  <si>
-    <t>1980m11</t>
-  </si>
-  <si>
-    <t>1980m12</t>
-  </si>
-  <si>
-    <t>1981m1</t>
-  </si>
-  <si>
-    <t>1981m2</t>
-  </si>
-  <si>
-    <t>1981m3</t>
-  </si>
-  <si>
-    <t>1981m4</t>
-  </si>
-  <si>
-    <t>1981m5</t>
-  </si>
-  <si>
-    <t>1981m6</t>
-  </si>
-  <si>
-    <t>1981m7</t>
-  </si>
-  <si>
-    <t>1981m8</t>
-  </si>
-  <si>
-    <t>1981m9</t>
-  </si>
-  <si>
-    <t>1981m10</t>
-  </si>
-  <si>
-    <t>1981m11</t>
-  </si>
-  <si>
-    <t>1981m12</t>
-  </si>
-  <si>
-    <t>1982m1</t>
-  </si>
-  <si>
-    <t>1982m2</t>
-  </si>
-  <si>
-    <t>1982m3</t>
-  </si>
-  <si>
-    <t>1982m4</t>
-  </si>
-  <si>
-    <t>1982m5</t>
-  </si>
-  <si>
-    <t>1982m6</t>
-  </si>
-  <si>
-    <t>1982m7</t>
-  </si>
-  <si>
-    <t>1982m8</t>
-  </si>
-  <si>
-    <t>1982m9</t>
-  </si>
-  <si>
-    <t>1982m10</t>
-  </si>
-  <si>
-    <t>1982m11</t>
-  </si>
-  <si>
-    <t>1982m12</t>
-  </si>
-  <si>
-    <t>1983m1</t>
-  </si>
-  <si>
-    <t>1983m2</t>
-  </si>
-  <si>
-    <t>1983m3</t>
-  </si>
-  <si>
-    <t>1983m4</t>
-  </si>
-  <si>
-    <t>1983m5</t>
-  </si>
-  <si>
-    <t>1983m6</t>
-  </si>
-  <si>
-    <t>1983m7</t>
-  </si>
-  <si>
-    <t>1983m8</t>
-  </si>
-  <si>
-    <t>1983m9</t>
-  </si>
-  <si>
-    <t>1983m10</t>
-  </si>
-  <si>
-    <t>1983m11</t>
-  </si>
-  <si>
-    <t>1983m12</t>
-  </si>
-  <si>
-    <t>1984m1</t>
-  </si>
-  <si>
-    <t>1984m2</t>
-  </si>
-  <si>
-    <t>1984m3</t>
-  </si>
-  <si>
-    <t>1984m4</t>
-  </si>
-  <si>
-    <t>1984m5</t>
-  </si>
-  <si>
-    <t>1984m6</t>
-  </si>
-  <si>
-    <t>1984m7</t>
-  </si>
-  <si>
-    <t>1984m8</t>
-  </si>
-  <si>
-    <t>1984m9</t>
-  </si>
-  <si>
-    <t>1984m10</t>
-  </si>
-  <si>
-    <t>1984m11</t>
-  </si>
-  <si>
-    <t>1984m12</t>
-  </si>
-  <si>
-    <t>1985m1</t>
-  </si>
-  <si>
-    <t>1985m2</t>
-  </si>
-  <si>
-    <t>1985m3</t>
-  </si>
-  <si>
-    <t>1985m4</t>
-  </si>
-  <si>
-    <t>1985m5</t>
-  </si>
-  <si>
-    <t>1985m6</t>
-  </si>
-  <si>
-    <t>1985m7</t>
-  </si>
-  <si>
-    <t>1985m8</t>
-  </si>
-  <si>
-    <t>1985m9</t>
-  </si>
-  <si>
-    <t>1985m10</t>
-  </si>
-  <si>
-    <t>1985m11</t>
-  </si>
-  <si>
-    <t>1985m12</t>
-  </si>
-  <si>
-    <t>1986m1</t>
-  </si>
-  <si>
-    <t>1986m2</t>
-  </si>
-  <si>
-    <t>1986m3</t>
-  </si>
-  <si>
-    <t>1986m4</t>
-  </si>
-  <si>
-    <t>1986m5</t>
-  </si>
-  <si>
-    <t>1986m6</t>
-  </si>
-  <si>
-    <t>1986m7</t>
-  </si>
-  <si>
-    <t>1986m8</t>
-  </si>
-  <si>
-    <t>1986m9</t>
-  </si>
-  <si>
-    <t>1986m10</t>
-  </si>
-  <si>
-    <t>1986m11</t>
-  </si>
-  <si>
-    <t>1986m12</t>
-  </si>
-  <si>
-    <t>1987m1</t>
-  </si>
-  <si>
-    <t>1987m2</t>
-  </si>
-  <si>
-    <t>1987m3</t>
-  </si>
-  <si>
-    <t>1987m4</t>
-  </si>
-  <si>
-    <t>1987m5</t>
-  </si>
-  <si>
-    <t>1987m6</t>
-  </si>
-  <si>
-    <t>1987m7</t>
-  </si>
-  <si>
-    <t>1987m8</t>
-  </si>
-  <si>
-    <t>1987m9</t>
-  </si>
-  <si>
-    <t>1987m10</t>
-  </si>
-  <si>
-    <t>1987m11</t>
-  </si>
-  <si>
-    <t>1987m12</t>
-  </si>
-  <si>
-    <t>1988m1</t>
-  </si>
-  <si>
-    <t>1988m2</t>
-  </si>
-  <si>
-    <t>1988m3</t>
-  </si>
-  <si>
-    <t>1988m4</t>
-  </si>
-  <si>
-    <t>1988m5</t>
-  </si>
-  <si>
-    <t>1988m6</t>
-  </si>
-  <si>
-    <t>1988m7</t>
-  </si>
-  <si>
-    <t>1988m8</t>
-  </si>
-  <si>
-    <t>1988m9</t>
-  </si>
-  <si>
-    <t>1988m10</t>
-  </si>
-  <si>
-    <t>1988m11</t>
-  </si>
-  <si>
-    <t>1988m12</t>
-  </si>
-  <si>
-    <t>1989m1</t>
-  </si>
-  <si>
-    <t>1989m2</t>
-  </si>
-  <si>
-    <t>1989m3</t>
-  </si>
-  <si>
-    <t>1989m4</t>
-  </si>
-  <si>
-    <t>1989m5</t>
-  </si>
-  <si>
-    <t>1989m6</t>
-  </si>
-  <si>
-    <t>1989m7</t>
-  </si>
-  <si>
-    <t>1989m8</t>
-  </si>
-  <si>
-    <t>1989m9</t>
-  </si>
-  <si>
-    <t>1989m10</t>
-  </si>
-  <si>
-    <t>1989m11</t>
-  </si>
-  <si>
-    <t>1989m12</t>
-  </si>
-  <si>
-    <t>1990m1</t>
-  </si>
-  <si>
-    <t>1990m2</t>
-  </si>
-  <si>
-    <t>1990m3</t>
-  </si>
-  <si>
-    <t>1990m4</t>
-  </si>
-  <si>
-    <t>1990m5</t>
-  </si>
-  <si>
-    <t>1990m6</t>
-  </si>
-  <si>
-    <t>1990m7</t>
-  </si>
-  <si>
-    <t>1990m8</t>
-  </si>
-  <si>
-    <t>1990m9</t>
-  </si>
-  <si>
-    <t>1990m10</t>
-  </si>
-  <si>
-    <t>1990m11</t>
-  </si>
-  <si>
-    <t>1990m12</t>
-  </si>
-  <si>
-    <t>1991m1</t>
-  </si>
-  <si>
-    <t>1991m2</t>
-  </si>
-  <si>
-    <t>1991m3</t>
-  </si>
-  <si>
-    <t>1991m4</t>
-  </si>
-  <si>
-    <t>1991m5</t>
-  </si>
-  <si>
-    <t>1991m6</t>
-  </si>
-  <si>
-    <t>1991m7</t>
-  </si>
-  <si>
-    <t>1991m8</t>
-  </si>
-  <si>
-    <t>1991m9</t>
-  </si>
-  <si>
-    <t>1991m10</t>
-  </si>
-  <si>
-    <t>1991m11</t>
-  </si>
-  <si>
-    <t>1991m12</t>
-  </si>
-  <si>
-    <t>1992m1</t>
-  </si>
-  <si>
-    <t>1992m2</t>
-  </si>
-  <si>
-    <t>1992m3</t>
-  </si>
-  <si>
-    <t>1992m4</t>
-  </si>
-  <si>
-    <t>1992m5</t>
-  </si>
-  <si>
-    <t>1992m6</t>
-  </si>
-  <si>
-    <t>1992m7</t>
-  </si>
-  <si>
-    <t>1992m8</t>
-  </si>
-  <si>
-    <t>1992m9</t>
-  </si>
-  <si>
-    <t>1992m10</t>
-  </si>
-  <si>
-    <t>1992m11</t>
-  </si>
-  <si>
-    <t>1992m12</t>
-  </si>
-  <si>
-    <t>1993m1</t>
-  </si>
-  <si>
-    <t>1993m2</t>
-  </si>
-  <si>
-    <t>1993m3</t>
-  </si>
-  <si>
-    <t>1993m4</t>
-  </si>
-  <si>
-    <t>1993m5</t>
-  </si>
-  <si>
-    <t>1993m6</t>
-  </si>
-  <si>
-    <t>1993m7</t>
-  </si>
-  <si>
-    <t>1993m8</t>
-  </si>
-  <si>
-    <t>1993m9</t>
-  </si>
-  <si>
-    <t>1993m10</t>
-  </si>
-  <si>
-    <t>1993m11</t>
-  </si>
-  <si>
-    <t>1993m12</t>
-  </si>
-  <si>
-    <t>1994m1</t>
-  </si>
-  <si>
-    <t>1994m2</t>
-  </si>
-  <si>
-    <t>1994m3</t>
-  </si>
-  <si>
-    <t>1994m4</t>
-  </si>
-  <si>
-    <t>1994m5</t>
-  </si>
-  <si>
-    <t>1994m6</t>
-  </si>
-  <si>
-    <t>1994m7</t>
-  </si>
-  <si>
-    <t>1994m8</t>
-  </si>
-  <si>
-    <t>1994m9</t>
-  </si>
-  <si>
-    <t>1994m10</t>
-  </si>
-  <si>
-    <t>1994m11</t>
-  </si>
-  <si>
-    <t>1994m12</t>
-  </si>
-  <si>
-    <t>1995m1</t>
-  </si>
-  <si>
-    <t>1995m2</t>
-  </si>
-  <si>
-    <t>1995m3</t>
-  </si>
-  <si>
-    <t>1995m4</t>
-  </si>
-  <si>
-    <t>1995m5</t>
-  </si>
-  <si>
-    <t>1995m6</t>
-  </si>
-  <si>
-    <t>1995m7</t>
-  </si>
-  <si>
-    <t>1995m8</t>
-  </si>
-  <si>
-    <t>1995m9</t>
-  </si>
-  <si>
-    <t>1995m10</t>
-  </si>
-  <si>
-    <t>1995m11</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -873,6 +57,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -895,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -906,6 +96,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1185,20 +376,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="3"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1206,2206 +399,2207 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="4">
+        <v>26665</v>
       </c>
       <c r="B2" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" s="4">
+        <v>26696</v>
       </c>
       <c r="B3" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="A4" s="4">
+        <v>26724</v>
       </c>
       <c r="B4" s="2">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" s="4">
+        <v>26755</v>
       </c>
       <c r="B5" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
+      <c r="A6" s="4">
+        <v>26785</v>
       </c>
       <c r="B6" s="2">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
+      <c r="A7" s="4">
+        <v>26816</v>
       </c>
       <c r="B7" s="2">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
+      <c r="A8" s="4">
+        <v>26846</v>
       </c>
       <c r="B8" s="2">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
+      <c r="A9" s="4">
+        <v>26877</v>
       </c>
       <c r="B9" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
+      <c r="A10" s="4">
+        <v>26908</v>
       </c>
       <c r="B10" s="2">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
+      <c r="A11" s="4">
+        <v>26938</v>
       </c>
       <c r="B11" s="2">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
+      <c r="A12" s="4">
+        <v>26969</v>
       </c>
       <c r="B12" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
+      <c r="A13" s="4">
+        <v>26999</v>
       </c>
       <c r="B13" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
+      <c r="A14" s="4">
+        <v>27030</v>
       </c>
       <c r="B14" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
+      <c r="A15" s="4">
+        <v>27061</v>
       </c>
       <c r="B15" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
+      <c r="A16" s="4">
+        <v>27089</v>
       </c>
       <c r="B16" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
+      <c r="A17" s="4">
+        <v>27120</v>
       </c>
       <c r="B17" s="2">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
+      <c r="A18" s="4">
+        <v>27150</v>
       </c>
       <c r="B18" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
+      <c r="A19" s="4">
+        <v>27181</v>
       </c>
       <c r="B19" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
+      <c r="A20" s="4">
+        <v>27211</v>
       </c>
       <c r="B20" s="2">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
+      <c r="A21" s="4">
+        <v>27242</v>
       </c>
       <c r="B21" s="2">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
+      <c r="A22" s="4">
+        <v>27273</v>
       </c>
       <c r="B22" s="2">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
+      <c r="A23" s="4">
+        <v>27303</v>
       </c>
       <c r="B23" s="2">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
+      <c r="A24" s="4">
+        <v>27334</v>
       </c>
       <c r="B24" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
+      <c r="A25" s="4">
+        <v>27364</v>
       </c>
       <c r="B25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
+      <c r="A26" s="4">
+        <v>27395</v>
       </c>
       <c r="B26" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
+      <c r="A27" s="4">
+        <v>27426</v>
       </c>
       <c r="B27" s="2">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
+      <c r="A28" s="4">
+        <v>27454</v>
       </c>
       <c r="B28" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
+      <c r="A29" s="4">
+        <v>27485</v>
       </c>
       <c r="B29" s="2">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
+      <c r="A30" s="4">
+        <v>27515</v>
       </c>
       <c r="B30" s="2">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
+      <c r="A31" s="4">
+        <v>27546</v>
       </c>
       <c r="B31" s="2">
         <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
+      <c r="A32" s="4">
+        <v>27576</v>
       </c>
       <c r="B32" s="2">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
+      <c r="A33" s="4">
+        <v>27607</v>
       </c>
       <c r="B33" s="2">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
+      <c r="A34" s="4">
+        <v>27638</v>
       </c>
       <c r="B34" s="2">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
+      <c r="A35" s="4">
+        <v>27668</v>
       </c>
       <c r="B35" s="2">
         <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
+      <c r="A36" s="4">
+        <v>27699</v>
       </c>
       <c r="B36" s="2">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
+      <c r="A37" s="4">
+        <v>27729</v>
       </c>
       <c r="B37" s="2">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
+      <c r="A38" s="4">
+        <v>27760</v>
       </c>
       <c r="B38" s="2">
         <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
+      <c r="A39" s="4">
+        <v>27791</v>
       </c>
       <c r="B39" s="2">
         <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
+      <c r="A40" s="4">
+        <v>27820</v>
       </c>
       <c r="B40" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>41</v>
+      <c r="A41" s="4">
+        <v>27851</v>
       </c>
       <c r="B41" s="2">
         <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
+      <c r="A42" s="4">
+        <v>27881</v>
       </c>
       <c r="B42" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>43</v>
+      <c r="A43" s="4">
+        <v>27912</v>
       </c>
       <c r="B43" s="2">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>44</v>
+      <c r="A44" s="4">
+        <v>27942</v>
       </c>
       <c r="B44" s="2">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>45</v>
+      <c r="A45" s="4">
+        <v>27973</v>
       </c>
       <c r="B45" s="2">
         <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>46</v>
+      <c r="A46" s="4">
+        <v>28004</v>
       </c>
       <c r="B46" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>47</v>
+      <c r="A47" s="4">
+        <v>28034</v>
       </c>
       <c r="B47" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>48</v>
+      <c r="A48" s="4">
+        <v>28065</v>
       </c>
       <c r="B48" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>49</v>
+      <c r="A49" s="4">
+        <v>28095</v>
       </c>
       <c r="B49" s="2">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>50</v>
+      <c r="A50" s="4">
+        <v>28126</v>
       </c>
       <c r="B50" s="2">
         <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>51</v>
+      <c r="A51" s="4">
+        <v>28157</v>
       </c>
       <c r="B51" s="2">
         <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>52</v>
+      <c r="A52" s="4">
+        <v>28185</v>
       </c>
       <c r="B52" s="2">
         <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>53</v>
+      <c r="A53" s="4">
+        <v>28216</v>
       </c>
       <c r="B53" s="2">
         <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>54</v>
+      <c r="A54" s="4">
+        <v>28246</v>
       </c>
       <c r="B54" s="2">
         <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>55</v>
+      <c r="A55" s="4">
+        <v>28277</v>
       </c>
       <c r="B55" s="2">
         <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>56</v>
+      <c r="A56" s="4">
+        <v>28307</v>
       </c>
       <c r="B56" s="2">
         <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>57</v>
+      <c r="A57" s="4">
+        <v>28338</v>
       </c>
       <c r="B57" s="2">
         <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>58</v>
+      <c r="A58" s="4">
+        <v>28369</v>
       </c>
       <c r="B58" s="2">
         <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>59</v>
+      <c r="A59" s="4">
+        <v>28399</v>
       </c>
       <c r="B59" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>60</v>
+      <c r="A60" s="4">
+        <v>28430</v>
       </c>
       <c r="B60" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>61</v>
+      <c r="A61" s="4">
+        <v>28460</v>
       </c>
       <c r="B61" s="2">
         <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>62</v>
+      <c r="A62" s="4">
+        <v>28491</v>
       </c>
       <c r="B62" s="2">
         <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>63</v>
+      <c r="A63" s="4">
+        <v>28522</v>
       </c>
       <c r="B63" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>64</v>
+      <c r="A64" s="4">
+        <v>28550</v>
       </c>
       <c r="B64" s="2">
         <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>65</v>
+      <c r="A65" s="4">
+        <v>28581</v>
       </c>
       <c r="B65" s="2">
         <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>66</v>
+      <c r="A66" s="4">
+        <v>28611</v>
       </c>
       <c r="B66" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>67</v>
+      <c r="A67" s="4">
+        <v>28642</v>
       </c>
       <c r="B67" s="2">
         <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>68</v>
+      <c r="A68" s="4">
+        <v>28672</v>
       </c>
       <c r="B68" s="2">
         <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>69</v>
+      <c r="A69" s="4">
+        <v>28703</v>
       </c>
       <c r="B69" s="2">
         <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>70</v>
+      <c r="A70" s="4">
+        <v>28734</v>
       </c>
       <c r="B70" s="2">
         <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>71</v>
+      <c r="A71" s="4">
+        <v>28764</v>
       </c>
       <c r="B71" s="2">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>72</v>
+      <c r="A72" s="4">
+        <v>28795</v>
       </c>
       <c r="B72" s="2">
         <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>73</v>
+      <c r="A73" s="4">
+        <v>28825</v>
       </c>
       <c r="B73" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>74</v>
+      <c r="A74" s="4">
+        <v>28856</v>
       </c>
       <c r="B74" s="2">
         <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>75</v>
+      <c r="A75" s="4">
+        <v>28887</v>
       </c>
       <c r="B75" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>76</v>
+      <c r="A76" s="4">
+        <v>28915</v>
       </c>
       <c r="B76" s="2">
         <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>77</v>
+      <c r="A77" s="4">
+        <v>28946</v>
       </c>
       <c r="B77" s="2">
         <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>78</v>
+      <c r="A78" s="4">
+        <v>28976</v>
       </c>
       <c r="B78" s="2">
         <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>79</v>
+      <c r="A79" s="4">
+        <v>29007</v>
       </c>
       <c r="B79" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>80</v>
+      <c r="A80" s="4">
+        <v>29037</v>
       </c>
       <c r="B80" s="2">
         <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>81</v>
+      <c r="A81" s="4">
+        <v>29068</v>
       </c>
       <c r="B81" s="2">
         <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>82</v>
+      <c r="A82" s="4">
+        <v>29099</v>
       </c>
       <c r="B82" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>83</v>
+      <c r="A83" s="4">
+        <v>29129</v>
       </c>
       <c r="B83" s="2">
         <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>84</v>
+      <c r="A84" s="4">
+        <v>29160</v>
       </c>
       <c r="B84" s="2">
         <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>85</v>
+      <c r="A85" s="4">
+        <v>29190</v>
       </c>
       <c r="B85" s="2">
         <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>86</v>
+      <c r="A86" s="4">
+        <v>29221</v>
       </c>
       <c r="B86" s="2">
         <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>87</v>
+      <c r="A87" s="4">
+        <v>29252</v>
       </c>
       <c r="B87" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>88</v>
+      <c r="A88" s="4">
+        <v>29281</v>
       </c>
       <c r="B88" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>89</v>
+      <c r="A89" s="4">
+        <v>29312</v>
       </c>
       <c r="B89" s="2">
         <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>90</v>
+      <c r="A90" s="4">
+        <v>29342</v>
       </c>
       <c r="B90" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>91</v>
+      <c r="A91" s="4">
+        <v>29373</v>
       </c>
       <c r="B91" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>92</v>
+      <c r="A92" s="4">
+        <v>29403</v>
       </c>
       <c r="B92" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>93</v>
+      <c r="A93" s="4">
+        <v>29434</v>
       </c>
       <c r="B93" s="2">
         <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>94</v>
+      <c r="A94" s="4">
+        <v>29465</v>
       </c>
       <c r="B94" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>95</v>
+      <c r="A95" s="4">
+        <v>29495</v>
       </c>
       <c r="B95" s="2">
         <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>96</v>
+      <c r="A96" s="4">
+        <v>29526</v>
       </c>
       <c r="B96" s="2">
         <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>97</v>
+      <c r="A97" s="4">
+        <v>29556</v>
       </c>
       <c r="B97" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>98</v>
+      <c r="A98" s="4">
+        <v>29587</v>
       </c>
       <c r="B98" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>99</v>
+      <c r="A99" s="4">
+        <v>29618</v>
       </c>
       <c r="B99" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>100</v>
+      <c r="A100" s="4">
+        <v>29646</v>
       </c>
       <c r="B100" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>101</v>
+      <c r="A101" s="4">
+        <v>29677</v>
       </c>
       <c r="B101" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>102</v>
+      <c r="A102" s="4">
+        <v>29707</v>
       </c>
       <c r="B102" s="2">
         <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>103</v>
+      <c r="A103" s="4">
+        <v>29738</v>
       </c>
       <c r="B103" s="2">
         <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>104</v>
+      <c r="A104" s="4">
+        <v>29768</v>
       </c>
       <c r="B104" s="2">
         <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>105</v>
+      <c r="A105" s="4">
+        <v>29799</v>
       </c>
       <c r="B105" s="2">
         <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>106</v>
+      <c r="A106" s="4">
+        <v>29830</v>
       </c>
       <c r="B106" s="2">
         <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>107</v>
+      <c r="A107" s="4">
+        <v>29860</v>
       </c>
       <c r="B107" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>108</v>
+      <c r="A108" s="4">
+        <v>29891</v>
       </c>
       <c r="B108" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>109</v>
+      <c r="A109" s="4">
+        <v>29921</v>
       </c>
       <c r="B109" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>110</v>
+      <c r="A110" s="4">
+        <v>29952</v>
       </c>
       <c r="B110" s="2">
         <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>111</v>
+      <c r="A111" s="4">
+        <v>29983</v>
       </c>
       <c r="B111" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>112</v>
+      <c r="A112" s="4">
+        <v>30011</v>
       </c>
       <c r="B112" s="2">
         <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>113</v>
+      <c r="A113" s="4">
+        <v>30042</v>
       </c>
       <c r="B113" s="2">
         <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>114</v>
+      <c r="A114" s="4">
+        <v>30072</v>
       </c>
       <c r="B114" s="2">
         <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>115</v>
+      <c r="A115" s="4">
+        <v>30103</v>
       </c>
       <c r="B115" s="2">
         <v>34</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>116</v>
+      <c r="A116" s="4">
+        <v>30133</v>
       </c>
       <c r="B116" s="2">
         <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>117</v>
+      <c r="A117" s="4">
+        <v>30164</v>
       </c>
       <c r="B117" s="2">
         <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>118</v>
+      <c r="A118" s="4">
+        <v>30195</v>
       </c>
       <c r="B118" s="2">
         <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>119</v>
+      <c r="A119" s="4">
+        <v>30225</v>
       </c>
       <c r="B119" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>120</v>
+      <c r="A120" s="4">
+        <v>30256</v>
       </c>
       <c r="B120" s="2">
         <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>121</v>
+      <c r="A121" s="4">
+        <v>30286</v>
       </c>
       <c r="B121" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>122</v>
+      <c r="A122" s="4">
+        <v>30317</v>
       </c>
       <c r="B122" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>123</v>
+      <c r="A123" s="4">
+        <v>30348</v>
       </c>
       <c r="B123" s="2">
         <v>46</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>124</v>
+      <c r="A124" s="4">
+        <v>30376</v>
       </c>
       <c r="B124" s="2">
         <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>125</v>
+      <c r="A125" s="4">
+        <v>30407</v>
       </c>
       <c r="B125" s="2">
         <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>126</v>
+      <c r="A126" s="4">
+        <v>30437</v>
       </c>
       <c r="B126" s="2">
         <v>64</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>127</v>
+      <c r="A127" s="4">
+        <v>30468</v>
       </c>
       <c r="B127" s="2">
         <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>128</v>
+      <c r="A128" s="4">
+        <v>30498</v>
       </c>
       <c r="B128" s="2">
         <v>51</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>129</v>
+      <c r="A129" s="4">
+        <v>30529</v>
       </c>
       <c r="B129" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>130</v>
+      <c r="A130" s="4">
+        <v>30560</v>
       </c>
       <c r="B130" s="2">
         <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>131</v>
+      <c r="A131" s="4">
+        <v>30590</v>
       </c>
       <c r="B131" s="2">
         <v>51</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>132</v>
+      <c r="A132" s="4">
+        <v>30621</v>
       </c>
       <c r="B132" s="2">
         <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>133</v>
+      <c r="A133" s="4">
+        <v>30651</v>
       </c>
       <c r="B133" s="2">
         <v>48</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>134</v>
+      <c r="A134" s="4">
+        <v>30682</v>
       </c>
       <c r="B134" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>135</v>
+      <c r="A135" s="4">
+        <v>30713</v>
       </c>
       <c r="B135" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>136</v>
+      <c r="A136" s="4">
+        <v>30742</v>
       </c>
       <c r="B136" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>137</v>
+      <c r="A137" s="4">
+        <v>30773</v>
       </c>
       <c r="B137" s="2">
         <v>61</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>138</v>
+      <c r="A138" s="4">
+        <v>30803</v>
       </c>
       <c r="B138" s="2">
         <v>59</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>139</v>
+      <c r="A139" s="4">
+        <v>30834</v>
       </c>
       <c r="B139" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>140</v>
+      <c r="A140" s="4">
+        <v>30864</v>
       </c>
       <c r="B140" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>141</v>
+      <c r="A141" s="4">
+        <v>30895</v>
       </c>
       <c r="B141" s="2">
         <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>142</v>
+      <c r="A142" s="4">
+        <v>30926</v>
       </c>
       <c r="B142" s="2">
         <v>53</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>143</v>
+      <c r="A143" s="4">
+        <v>30956</v>
       </c>
       <c r="B143" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>144</v>
+      <c r="A144" s="4">
+        <v>30987</v>
       </c>
       <c r="B144" s="2">
         <v>42</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>145</v>
+      <c r="A145" s="4">
+        <v>31017</v>
       </c>
       <c r="B145" s="2">
         <v>38</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>146</v>
+      <c r="A146" s="4">
+        <v>31048</v>
       </c>
       <c r="B146" s="2">
         <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>147</v>
+      <c r="A147" s="4">
+        <v>31079</v>
       </c>
       <c r="B147" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>148</v>
+      <c r="A148" s="4">
+        <v>31107</v>
       </c>
       <c r="B148" s="2">
         <v>67</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>149</v>
+      <c r="A149" s="4">
+        <v>31138</v>
       </c>
       <c r="B149" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>150</v>
+      <c r="A150" s="4">
+        <v>31168</v>
       </c>
       <c r="B150" s="2">
         <v>65</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>151</v>
+      <c r="A151" s="4">
+        <v>31199</v>
       </c>
       <c r="B151" s="2">
         <v>65</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>152</v>
+      <c r="A152" s="4">
+        <v>31229</v>
       </c>
       <c r="B152" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>153</v>
+      <c r="A153" s="4">
+        <v>31260</v>
       </c>
       <c r="B153" s="2">
         <v>61</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>154</v>
+      <c r="A154" s="4">
+        <v>31291</v>
       </c>
       <c r="B154" s="2">
         <v>54</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>155</v>
+      <c r="A155" s="4">
+        <v>31321</v>
       </c>
       <c r="B155" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>156</v>
+      <c r="A156" s="4">
+        <v>31352</v>
       </c>
       <c r="B156" s="2">
         <v>51</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>157</v>
+      <c r="A157" s="4">
+        <v>31382</v>
       </c>
       <c r="B157" s="2">
         <v>47</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>158</v>
+      <c r="A158" s="4">
+        <v>31413</v>
       </c>
       <c r="B158" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>159</v>
+      <c r="A159" s="4">
+        <v>31444</v>
       </c>
       <c r="B159" s="2">
         <v>59</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>160</v>
+      <c r="A160" s="4">
+        <v>31472</v>
       </c>
       <c r="B160" s="2">
         <v>89</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>161</v>
+      <c r="A161" s="4">
+        <v>31503</v>
       </c>
       <c r="B161" s="2">
         <v>84</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>162</v>
+      <c r="A162" s="4">
+        <v>31533</v>
       </c>
       <c r="B162" s="2">
         <v>75</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>163</v>
+      <c r="A163" s="4">
+        <v>31564</v>
       </c>
       <c r="B163" s="2">
         <v>66</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>164</v>
+      <c r="A164" s="4">
+        <v>31594</v>
       </c>
       <c r="B164" s="2">
         <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>165</v>
+      <c r="A165" s="4">
+        <v>31625</v>
       </c>
       <c r="B165" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>166</v>
+      <c r="A166" s="4">
+        <v>31656</v>
       </c>
       <c r="B166" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>167</v>
+      <c r="A167" s="4">
+        <v>31686</v>
       </c>
       <c r="B167" s="2">
         <v>54</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>168</v>
+      <c r="A168" s="4">
+        <v>31717</v>
       </c>
       <c r="B168" s="2">
         <v>48</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>169</v>
+      <c r="A169" s="4">
+        <v>31747</v>
       </c>
       <c r="B169" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>170</v>
+      <c r="A170" s="4">
+        <v>31778</v>
       </c>
       <c r="B170" s="2">
         <v>53</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>171</v>
+      <c r="A171" s="4">
+        <v>31809</v>
       </c>
       <c r="B171" s="2">
         <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>172</v>
+      <c r="A172" s="4">
+        <v>31837</v>
       </c>
       <c r="B172" s="2">
         <v>73</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>173</v>
+      <c r="A173" s="4">
+        <v>31868</v>
       </c>
       <c r="B173" s="2">
         <v>72</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>174</v>
+      <c r="A174" s="4">
+        <v>31898</v>
       </c>
       <c r="B174" s="2">
         <v>62</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>175</v>
+      <c r="A175" s="4">
+        <v>31929</v>
       </c>
       <c r="B175" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>176</v>
+      <c r="A176" s="4">
+        <v>31959</v>
       </c>
       <c r="B176" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>177</v>
+      <c r="A177" s="4">
+        <v>31990</v>
       </c>
       <c r="B177" s="2">
         <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>178</v>
+      <c r="A178" s="4">
+        <v>32021</v>
       </c>
       <c r="B178" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>179</v>
+      <c r="A179" s="4">
+        <v>32051</v>
       </c>
       <c r="B179" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>180</v>
+      <c r="A180" s="4">
+        <v>32082</v>
       </c>
       <c r="B180" s="2">
         <v>43</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>181</v>
+      <c r="A181" s="4">
+        <v>32112</v>
       </c>
       <c r="B181" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>182</v>
+      <c r="A182" s="4">
+        <v>32143</v>
       </c>
       <c r="B182" s="2">
         <v>43</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>183</v>
+      <c r="A183" s="4">
+        <v>32174</v>
       </c>
       <c r="B183" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>184</v>
+      <c r="A184" s="4">
+        <v>32203</v>
       </c>
       <c r="B184" s="2">
         <v>68</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>185</v>
+      <c r="A185" s="4">
+        <v>32234</v>
       </c>
       <c r="B185" s="2">
         <v>68</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>186</v>
+      <c r="A186" s="4">
+        <v>32264</v>
       </c>
       <c r="B186" s="2">
         <v>64</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>187</v>
+      <c r="A187" s="4">
+        <v>32295</v>
       </c>
       <c r="B187" s="2">
         <v>65</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>188</v>
+      <c r="A188" s="4">
+        <v>32325</v>
       </c>
       <c r="B188" s="2">
         <v>57</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>189</v>
+      <c r="A189" s="4">
+        <v>32356</v>
       </c>
       <c r="B189" s="2">
         <v>59</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>190</v>
+      <c r="A190" s="4">
+        <v>32387</v>
       </c>
       <c r="B190" s="2">
         <v>54</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>191</v>
+      <c r="A191" s="4">
+        <v>32417</v>
       </c>
       <c r="B191" s="2">
         <v>57</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>192</v>
+      <c r="A192" s="4">
+        <v>32448</v>
       </c>
       <c r="B192" s="2">
         <v>43</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>193</v>
+      <c r="A193" s="4">
+        <v>32478</v>
       </c>
       <c r="B193" s="2">
         <v>42</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>194</v>
+      <c r="A194" s="4">
+        <v>32509</v>
       </c>
       <c r="B194" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>195</v>
+      <c r="A195" s="4">
+        <v>32540</v>
       </c>
       <c r="B195" s="2">
         <v>51</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>196</v>
+      <c r="A196" s="4">
+        <v>32568</v>
       </c>
       <c r="B196" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>197</v>
+      <c r="A197" s="4">
+        <v>32599</v>
       </c>
       <c r="B197" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>198</v>
+      <c r="A198" s="4">
+        <v>32629</v>
       </c>
       <c r="B198" s="2">
         <v>61</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>199</v>
+      <c r="A199" s="4">
+        <v>32660</v>
       </c>
       <c r="B199" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>200</v>
+      <c r="A200" s="4">
+        <v>32690</v>
       </c>
       <c r="B200" s="2">
         <v>62</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>201</v>
+      <c r="A201" s="4">
+        <v>32721</v>
       </c>
       <c r="B201" s="2">
         <v>61</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>202</v>
+      <c r="A202" s="4">
+        <v>32752</v>
       </c>
       <c r="B202" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>203</v>
+      <c r="A203" s="4">
+        <v>32782</v>
       </c>
       <c r="B203" s="2">
         <v>51</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>204</v>
+      <c r="A204" s="4">
+        <v>32813</v>
       </c>
       <c r="B204" s="2">
         <v>47</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>205</v>
+      <c r="A205" s="4">
+        <v>32843</v>
       </c>
       <c r="B205" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>206</v>
+      <c r="A206" s="4">
+        <v>32874</v>
       </c>
       <c r="B206" s="2">
         <v>45</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>207</v>
+      <c r="A207" s="4">
+        <v>32905</v>
       </c>
       <c r="B207" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>208</v>
+      <c r="A208" s="4">
+        <v>32933</v>
       </c>
       <c r="B208" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>209</v>
+      <c r="A209" s="4">
+        <v>32964</v>
       </c>
       <c r="B209" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>210</v>
+      <c r="A210" s="4">
+        <v>32994</v>
       </c>
       <c r="B210" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>211</v>
+      <c r="A211" s="4">
+        <v>33025</v>
       </c>
       <c r="B211" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>212</v>
+      <c r="A212" s="4">
+        <v>33055</v>
       </c>
       <c r="B212" s="2">
         <v>46</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>213</v>
+      <c r="A213" s="4">
+        <v>33086</v>
       </c>
       <c r="B213" s="2">
         <v>46</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>214</v>
+      <c r="A214" s="4">
+        <v>33117</v>
       </c>
       <c r="B214" s="2">
         <v>38</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>215</v>
+      <c r="A215" s="4">
+        <v>33147</v>
       </c>
       <c r="B215" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>216</v>
+      <c r="A216" s="4">
+        <v>33178</v>
       </c>
       <c r="B216" s="2">
         <v>34</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>217</v>
+      <c r="A217" s="4">
+        <v>33208</v>
       </c>
       <c r="B217" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>218</v>
+      <c r="A218" s="4">
+        <v>33239</v>
       </c>
       <c r="B218" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>219</v>
+      <c r="A219" s="4">
+        <v>33270</v>
       </c>
       <c r="B219" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>220</v>
+      <c r="A220" s="4">
+        <v>33298</v>
       </c>
       <c r="B220" s="2">
         <v>46</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>221</v>
+      <c r="A221" s="4">
+        <v>33329</v>
       </c>
       <c r="B221" s="2">
         <v>46</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>222</v>
+      <c r="A222" s="4">
+        <v>33359</v>
       </c>
       <c r="B222" s="2">
         <v>47</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>223</v>
+      <c r="A223" s="4">
+        <v>33390</v>
       </c>
       <c r="B223" s="2">
         <v>47</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>224</v>
+      <c r="A224" s="4">
+        <v>33420</v>
       </c>
       <c r="B224" s="2">
         <v>43</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>225</v>
+      <c r="A225" s="4">
+        <v>33451</v>
       </c>
       <c r="B225" s="2">
         <v>46</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>226</v>
+      <c r="A226" s="4">
+        <v>33482</v>
       </c>
       <c r="B226" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>227</v>
+      <c r="A227" s="4">
+        <v>33512</v>
       </c>
       <c r="B227" s="2">
         <v>41</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>228</v>
+      <c r="A228" s="4">
+        <v>33543</v>
       </c>
       <c r="B228" s="2">
         <v>39</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>229</v>
+      <c r="A229" s="4">
+        <v>33573</v>
       </c>
       <c r="B229" s="2">
         <v>36</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>230</v>
+      <c r="A230" s="4">
+        <v>33604</v>
       </c>
       <c r="B230" s="2">
         <v>48</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>231</v>
+      <c r="A231" s="4">
+        <v>33635</v>
       </c>
       <c r="B231" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>232</v>
+      <c r="A232" s="4">
+        <v>33664</v>
       </c>
       <c r="B232" s="2">
         <v>56</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>233</v>
+      <c r="A233" s="4">
+        <v>33695</v>
       </c>
       <c r="B233" s="2">
         <v>53</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
-        <v>234</v>
+      <c r="A234" s="4">
+        <v>33725</v>
       </c>
       <c r="B234" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>235</v>
+      <c r="A235" s="4">
+        <v>33756</v>
       </c>
       <c r="B235" s="2">
         <v>53</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
-        <v>236</v>
+      <c r="A236" s="4">
+        <v>33786</v>
       </c>
       <c r="B236" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>237</v>
+      <c r="A237" s="4">
+        <v>33817</v>
       </c>
       <c r="B237" s="2">
         <v>56</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>238</v>
+      <c r="A238" s="4">
+        <v>33848</v>
       </c>
       <c r="B238" s="2">
         <v>51</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>239</v>
+      <c r="A239" s="4">
+        <v>33878</v>
       </c>
       <c r="B239" s="2">
         <v>48</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>240</v>
+      <c r="A240" s="4">
+        <v>33909</v>
       </c>
       <c r="B240" s="2">
         <v>42</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>241</v>
+      <c r="A241" s="4">
+        <v>33939</v>
       </c>
       <c r="B241" s="2">
         <v>42</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>242</v>
+      <c r="A242" s="4">
+        <v>33970</v>
       </c>
       <c r="B242" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>243</v>
+      <c r="A243" s="4">
+        <v>34001</v>
       </c>
       <c r="B243" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>244</v>
+      <c r="A244" s="4">
+        <v>34029</v>
       </c>
       <c r="B244" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>245</v>
+      <c r="A245" s="4">
+        <v>34060</v>
       </c>
       <c r="B245" s="2">
         <v>66</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>246</v>
+      <c r="A246" s="4">
+        <v>34090</v>
       </c>
       <c r="B246" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
-        <v>247</v>
+      <c r="A247" s="4">
+        <v>34121</v>
       </c>
       <c r="B247" s="2">
         <v>59</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>248</v>
+      <c r="A248" s="4">
+        <v>34151</v>
       </c>
       <c r="B248" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>249</v>
+      <c r="A249" s="4">
+        <v>34182</v>
       </c>
       <c r="B249" s="2">
         <v>57</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>250</v>
+      <c r="A250" s="4">
+        <v>34213</v>
       </c>
       <c r="B250" s="2">
         <v>57</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>251</v>
+      <c r="A251" s="4">
+        <v>34243</v>
       </c>
       <c r="B251" s="2">
         <v>56</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>252</v>
+      <c r="A252" s="4">
+        <v>34274</v>
       </c>
       <c r="B252" s="2">
         <v>53</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>253</v>
+      <c r="A253" s="4">
+        <v>34304</v>
       </c>
       <c r="B253" s="2">
         <v>51</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>254</v>
+      <c r="A254" s="4">
+        <v>34335</v>
       </c>
       <c r="B254" s="2">
         <v>45</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>255</v>
+      <c r="A255" s="4">
+        <v>34366</v>
       </c>
       <c r="B255" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>256</v>
+      <c r="A256" s="4">
+        <v>34394</v>
       </c>
       <c r="B256" s="2">
         <v>74</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>257</v>
+      <c r="A257" s="4">
+        <v>34425</v>
       </c>
       <c r="B257" s="2">
         <v>65</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>258</v>
+      <c r="A258" s="4">
+        <v>34455</v>
       </c>
       <c r="B258" s="2">
         <v>65</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>259</v>
+      <c r="A259" s="4">
+        <v>34486</v>
       </c>
       <c r="B259" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>260</v>
+      <c r="A260" s="4">
+        <v>34516</v>
       </c>
       <c r="B260" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>261</v>
+      <c r="A261" s="4">
+        <v>34547</v>
       </c>
       <c r="B261" s="2">
         <v>59</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>262</v>
+      <c r="A262" s="4">
+        <v>34578</v>
       </c>
       <c r="B262" s="2">
         <v>54</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>263</v>
+      <c r="A263" s="4">
+        <v>34608</v>
       </c>
       <c r="B263" s="2">
         <v>57</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>264</v>
+      <c r="A264" s="4">
+        <v>34639</v>
       </c>
       <c r="B264" s="2">
         <v>45</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>265</v>
+      <c r="A265" s="4">
+        <v>34669</v>
       </c>
       <c r="B265" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>266</v>
+      <c r="A266" s="4">
+        <v>34700</v>
       </c>
       <c r="B266" s="2">
         <v>47</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>267</v>
+      <c r="A267" s="4">
+        <v>34731</v>
       </c>
       <c r="B267" s="2">
         <v>47</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>268</v>
+      <c r="A268" s="4">
+        <v>34759</v>
       </c>
       <c r="B268" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>269</v>
+      <c r="A269" s="4">
+        <v>34790</v>
       </c>
       <c r="B269" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>270</v>
+      <c r="A270" s="4">
+        <v>34820</v>
       </c>
       <c r="B270" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>271</v>
+      <c r="A271" s="4">
+        <v>34851</v>
       </c>
       <c r="B271" s="2">
         <v>64</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>272</v>
+      <c r="A272" s="4">
+        <v>34881</v>
       </c>
       <c r="B272" s="2">
         <v>64</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>273</v>
+      <c r="A273" s="4">
+        <v>34912</v>
       </c>
       <c r="B273" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>274</v>
+      <c r="A274" s="4">
+        <v>34943</v>
       </c>
       <c r="B274" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>275</v>
+      <c r="A275" s="4">
+        <v>34973</v>
       </c>
       <c r="B275" s="2">
         <v>54</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>276</v>
+      <c r="A276" s="4">
+        <v>35004</v>
       </c>
       <c r="B276" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BASES DE DATOS/ventash.xlsx
+++ b/BASES DE DATOS/ventash.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhona\Desktop\Brayan\Github\Econometria--2\BASES DE DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4ED194-50F2-4010-ADFE-026B61AB95F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8D3935-6DA5-46E1-912B-29DAF1D1C848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,7 +380,7 @@
   <dimension ref="A1:B276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
